--- a/raw_data/labels.xlsx
+++ b/raw_data/labels.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiyibing/Desktop/XSTSF_production/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiyibing/Desktop/XSTSF/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5335CEBB-D322-FF45-8C3D-457E76C455EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E0B7BF-CA45-7E44-849C-ACDBCC9D555A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="3" xr2:uid="{402CC6B9-E9FC-114F-AF89-C5AECE65EB21}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="check" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'citation.tri'!$A$1:$E$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'citation.tri'!$A$1:$F$133</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">focus!$A$1:$E$335</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3962" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4095" uniqueCount="275">
   <si>
     <t>S1</t>
   </si>
@@ -835,6 +835,39 @@
   </si>
   <si>
     <t>focus_condition</t>
+  </si>
+  <si>
+    <t>1+2MH_shang</t>
+  </si>
+  <si>
+    <t>1+2MH_ping</t>
+  </si>
+  <si>
+    <t>2+1LL_ping</t>
+  </si>
+  <si>
+    <t>2+1LL_shang</t>
+  </si>
+  <si>
+    <t>syntax_first_tone</t>
+  </si>
+  <si>
+    <t>1+2VO_HH_ping</t>
+  </si>
+  <si>
+    <t>1+2MH_RF</t>
+  </si>
+  <si>
+    <t>1+2VO_RF</t>
+  </si>
+  <si>
+    <t>2+1LL_RF</t>
+  </si>
+  <si>
+    <t>2+1VL_RF</t>
+  </si>
+  <si>
+    <t>2+1VL_HH_ping</t>
   </si>
 </sst>
 </file>
@@ -11227,2277 +11260,2679 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E4C5B3-0A03-AB44-BED1-5363B225AF35}">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>171</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="8">
-        <v>1</v>
+      <c r="C2" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>171</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="8">
+      <c r="E3" s="8">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>171</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="8">
         <v>1</v>
       </c>
-      <c r="D4" s="8">
+      <c r="E4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>172</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="E5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>172</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C6" s="8">
-        <v>2</v>
+      <c r="C6" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>172</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="E7" s="8">
         <v>3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>173</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="8">
         <v>3</v>
       </c>
-      <c r="D8" s="8">
+      <c r="E8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>173</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" s="8">
         <v>3</v>
       </c>
-      <c r="D9" s="8">
+      <c r="E9" s="8">
         <v>2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>173</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="8">
-        <v>3</v>
+      <c r="C10" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="D10" s="8">
         <v>3</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="8">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>174</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" s="8">
         <v>4</v>
       </c>
-      <c r="D11" s="8">
+      <c r="E11" s="8">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>174</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="8">
         <v>4</v>
       </c>
-      <c r="D12" s="8">
+      <c r="E12" s="8">
         <v>2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>174</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="8">
         <v>4</v>
       </c>
-      <c r="D13" s="8">
+      <c r="E13" s="8">
         <v>3</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>175</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" s="8">
         <v>5</v>
       </c>
-      <c r="D14" s="8">
+      <c r="E14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>175</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="8">
         <v>5</v>
       </c>
-      <c r="D15" s="8">
+      <c r="E15" s="8">
         <v>2</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>175</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="8">
         <v>5</v>
       </c>
-      <c r="D16" s="8">
+      <c r="E16" s="8">
         <v>3</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>176</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" s="8">
         <v>6</v>
       </c>
-      <c r="D17" s="8">
+      <c r="E17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>176</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="8">
         <v>6</v>
       </c>
-      <c r="D18" s="8">
+      <c r="E18" s="8">
         <v>2</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>176</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D19" s="8">
         <v>6</v>
       </c>
-      <c r="D19" s="8">
+      <c r="E19" s="8">
         <v>3</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>177</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="8">
         <v>7</v>
       </c>
-      <c r="D20" s="8">
+      <c r="E20" s="8">
         <v>1</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>177</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="8">
         <v>7</v>
       </c>
-      <c r="D21" s="8">
+      <c r="E21" s="8">
         <v>2</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>177</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D22" s="8">
         <v>7</v>
       </c>
-      <c r="D22" s="8">
+      <c r="E22" s="8">
         <v>3</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>178</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D23" s="8">
         <v>8</v>
       </c>
-      <c r="D23" s="8">
+      <c r="E23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>178</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D24" s="8">
         <v>8</v>
       </c>
-      <c r="D24" s="8">
+      <c r="E24" s="8">
         <v>2</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>178</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25" s="8">
         <v>8</v>
       </c>
-      <c r="D25" s="8">
+      <c r="E25" s="8">
         <v>3</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>179</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" s="8">
         <v>9</v>
       </c>
-      <c r="D26" s="8">
+      <c r="E26" s="8">
         <v>1</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>179</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D27" s="8">
         <v>9</v>
       </c>
-      <c r="D27" s="8">
+      <c r="E27" s="8">
         <v>2</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>179</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D28" s="8">
         <v>9</v>
       </c>
-      <c r="D28" s="8">
+      <c r="E28" s="8">
         <v>3</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" s="8">
         <v>10</v>
       </c>
-      <c r="D29" s="8">
+      <c r="E29" s="8">
         <v>1</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D30" s="8">
         <v>10</v>
       </c>
-      <c r="D30" s="8">
+      <c r="E30" s="8">
         <v>2</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D31" s="8">
         <v>10</v>
       </c>
-      <c r="D31" s="8">
+      <c r="E31" s="8">
         <v>3</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>182</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D32" s="8">
         <v>11</v>
       </c>
-      <c r="D32" s="8">
+      <c r="E32" s="8">
         <v>1</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>182</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D33" s="8">
         <v>11</v>
       </c>
-      <c r="D33" s="8">
+      <c r="E33" s="8">
         <v>2</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>182</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D34" s="8">
         <v>11</v>
       </c>
-      <c r="D34" s="8">
+      <c r="E34" s="8">
         <v>3</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>183</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D35" s="8">
         <v>12</v>
       </c>
-      <c r="D35" s="8">
+      <c r="E35" s="8">
         <v>1</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>183</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D36" s="8">
         <v>12</v>
       </c>
-      <c r="D36" s="8">
+      <c r="E36" s="8">
         <v>2</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>183</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D37" s="8">
         <v>12</v>
       </c>
-      <c r="D37" s="8">
+      <c r="E37" s="8">
         <v>3</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>184</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D38" s="8">
         <v>13</v>
       </c>
-      <c r="D38" s="8">
+      <c r="E38" s="8">
         <v>1</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>184</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D39" s="8">
         <v>13</v>
       </c>
-      <c r="D39" s="8">
+      <c r="E39" s="8">
         <v>2</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>184</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D40" s="8">
         <v>13</v>
       </c>
-      <c r="D40" s="8">
+      <c r="E40" s="8">
         <v>3</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>185</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D41" s="8">
         <v>14</v>
       </c>
-      <c r="D41" s="8">
+      <c r="E41" s="8">
         <v>1</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>185</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D42" s="8">
         <v>14</v>
       </c>
-      <c r="D42" s="8">
+      <c r="E42" s="8">
         <v>2</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>185</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D43" s="8">
         <v>14</v>
       </c>
-      <c r="D43" s="8">
+      <c r="E43" s="8">
         <v>3</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>186</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D44" s="8">
         <v>15</v>
       </c>
-      <c r="D44" s="8">
+      <c r="E44" s="8">
         <v>1</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>186</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D45" s="8">
         <v>15</v>
       </c>
-      <c r="D45" s="8">
+      <c r="E45" s="8">
         <v>2</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>186</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D46" s="8">
         <v>15</v>
       </c>
-      <c r="D46" s="8">
+      <c r="E46" s="8">
         <v>3</v>
       </c>
-      <c r="E46" s="1">
+      <c r="F46" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>187</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D47" s="8">
         <v>16</v>
       </c>
-      <c r="D47" s="8">
+      <c r="E47" s="8">
         <v>1</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>187</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D48" s="8">
         <v>16</v>
       </c>
-      <c r="D48" s="8">
+      <c r="E48" s="8">
         <v>2</v>
       </c>
-      <c r="E48" s="1">
+      <c r="F48" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>187</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D49" s="8">
         <v>16</v>
       </c>
-      <c r="D49" s="8">
+      <c r="E49" s="8">
         <v>3</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>188</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D50" s="8">
         <v>17</v>
       </c>
-      <c r="D50" s="8">
+      <c r="E50" s="8">
         <v>1</v>
       </c>
-      <c r="E50" s="1">
+      <c r="F50" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>188</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D51" s="8">
         <v>17</v>
       </c>
-      <c r="D51" s="8">
+      <c r="E51" s="8">
         <v>2</v>
       </c>
-      <c r="E51" s="1">
+      <c r="F51" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>188</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D52" s="8">
         <v>17</v>
       </c>
-      <c r="D52" s="8">
+      <c r="E52" s="8">
         <v>3</v>
       </c>
-      <c r="E52" s="1">
+      <c r="F52" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>189</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D53" s="8">
         <v>18</v>
       </c>
-      <c r="D53" s="8">
+      <c r="E53" s="8">
         <v>1</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>189</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D54" s="8">
         <v>18</v>
       </c>
-      <c r="D54" s="8">
+      <c r="E54" s="8">
         <v>2</v>
       </c>
-      <c r="E54" s="1">
+      <c r="F54" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>189</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D55" s="8">
         <v>18</v>
       </c>
-      <c r="D55" s="8">
+      <c r="E55" s="8">
         <v>3</v>
       </c>
-      <c r="E55" s="1">
+      <c r="F55" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>190</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D56" s="8">
         <v>19</v>
       </c>
-      <c r="D56" s="8">
+      <c r="E56" s="8">
         <v>1</v>
       </c>
-      <c r="E56" s="1">
+      <c r="F56" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>190</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D57" s="8">
         <v>19</v>
       </c>
-      <c r="D57" s="8">
+      <c r="E57" s="8">
         <v>2</v>
       </c>
-      <c r="E57" s="1">
+      <c r="F57" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>190</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D58" s="8">
         <v>19</v>
       </c>
-      <c r="D58" s="8">
+      <c r="E58" s="8">
         <v>3</v>
       </c>
-      <c r="E58" s="1">
+      <c r="F58" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>191</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D59" s="8">
         <v>20</v>
       </c>
-      <c r="D59" s="8">
+      <c r="E59" s="8">
         <v>1</v>
       </c>
-      <c r="E59" s="1">
+      <c r="F59" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>191</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D60" s="8">
         <v>20</v>
       </c>
-      <c r="D60" s="8">
+      <c r="E60" s="8">
         <v>2</v>
       </c>
-      <c r="E60" s="1">
+      <c r="F60" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>191</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D61" s="8">
         <v>20</v>
       </c>
-      <c r="D61" s="8">
+      <c r="E61" s="8">
         <v>3</v>
       </c>
-      <c r="E61" s="1">
+      <c r="F61" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>192</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D62" s="8">
         <v>21</v>
       </c>
-      <c r="D62" s="8">
+      <c r="E62" s="8">
         <v>1</v>
       </c>
-      <c r="E62" s="1">
+      <c r="F62" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>192</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D63" s="8">
         <v>21</v>
       </c>
-      <c r="D63" s="8">
+      <c r="E63" s="8">
         <v>2</v>
       </c>
-      <c r="E63" s="1">
+      <c r="F63" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>192</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D64" s="8">
         <v>21</v>
       </c>
-      <c r="D64" s="8">
+      <c r="E64" s="8">
         <v>3</v>
       </c>
-      <c r="E64" s="1">
+      <c r="F64" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>193</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D65" s="8">
         <v>22</v>
       </c>
-      <c r="D65" s="8">
+      <c r="E65" s="8">
         <v>1</v>
       </c>
-      <c r="E65" s="1">
+      <c r="F65" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>193</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D66" s="8">
         <v>22</v>
       </c>
-      <c r="D66" s="8">
+      <c r="E66" s="8">
         <v>2</v>
       </c>
-      <c r="E66" s="1">
+      <c r="F66" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>193</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D67" s="8">
         <v>22</v>
       </c>
-      <c r="D67" s="8">
+      <c r="E67" s="8">
         <v>3</v>
       </c>
-      <c r="E67" s="1">
+      <c r="F67" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>194</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D68" s="8">
         <v>23</v>
       </c>
-      <c r="D68" s="8">
+      <c r="E68" s="8">
         <v>1</v>
       </c>
-      <c r="E68" s="1">
+      <c r="F68" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>194</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D69" s="8">
         <v>23</v>
       </c>
-      <c r="D69" s="8">
+      <c r="E69" s="8">
         <v>2</v>
       </c>
-      <c r="E69" s="1">
+      <c r="F69" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>194</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D70" s="8">
         <v>23</v>
       </c>
-      <c r="D70" s="8">
+      <c r="E70" s="8">
         <v>3</v>
       </c>
-      <c r="E70" s="1">
+      <c r="F70" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>195</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D71" s="8">
         <v>24</v>
       </c>
-      <c r="D71" s="8">
+      <c r="E71" s="8">
         <v>1</v>
       </c>
-      <c r="E71" s="1">
+      <c r="F71" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>195</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D72" s="8">
         <v>24</v>
       </c>
-      <c r="D72" s="8">
+      <c r="E72" s="8">
         <v>2</v>
       </c>
-      <c r="E72" s="1">
+      <c r="F72" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>195</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D73" s="8">
         <v>24</v>
       </c>
-      <c r="D73" s="8">
+      <c r="E73" s="8">
         <v>3</v>
       </c>
-      <c r="E73" s="1">
+      <c r="F73" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>196</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D74" s="8">
         <v>25</v>
       </c>
-      <c r="D74" s="8">
+      <c r="E74" s="8">
         <v>1</v>
       </c>
-      <c r="E74" s="1">
+      <c r="F74" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>196</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D75" s="8">
         <v>25</v>
       </c>
-      <c r="D75" s="8">
+      <c r="E75" s="8">
         <v>2</v>
       </c>
-      <c r="E75" s="1">
+      <c r="F75" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>196</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D76" s="8">
         <v>25</v>
       </c>
-      <c r="D76" s="8">
+      <c r="E76" s="8">
         <v>3</v>
       </c>
-      <c r="E76" s="1">
+      <c r="F76" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>197</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D77" s="8">
         <v>26</v>
       </c>
-      <c r="D77" s="8">
+      <c r="E77" s="8">
         <v>1</v>
       </c>
-      <c r="E77" s="1">
+      <c r="F77" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>197</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D78" s="8">
         <v>26</v>
       </c>
-      <c r="D78" s="8">
+      <c r="E78" s="8">
         <v>2</v>
       </c>
-      <c r="E78" s="1">
+      <c r="F78" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>197</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D79" s="8">
         <v>26</v>
       </c>
-      <c r="D79" s="8">
+      <c r="E79" s="8">
         <v>3</v>
       </c>
-      <c r="E79" s="1">
+      <c r="F79" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>198</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D80" s="8">
         <v>27</v>
       </c>
-      <c r="D80" s="8">
+      <c r="E80" s="8">
         <v>1</v>
       </c>
-      <c r="E80" s="1">
+      <c r="F80" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>198</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D81" s="8">
         <v>27</v>
       </c>
-      <c r="D81" s="8">
+      <c r="E81" s="8">
         <v>2</v>
       </c>
-      <c r="E81" s="1">
+      <c r="F81" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>198</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D82" s="8">
         <v>27</v>
       </c>
-      <c r="D82" s="8">
+      <c r="E82" s="8">
         <v>3</v>
       </c>
-      <c r="E82" s="1">
+      <c r="F82" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>199</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D83" s="8">
         <v>28</v>
       </c>
-      <c r="D83" s="8">
+      <c r="E83" s="8">
         <v>1</v>
       </c>
-      <c r="E83" s="1">
+      <c r="F83" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>199</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D84" s="8">
         <v>28</v>
       </c>
-      <c r="D84" s="8">
+      <c r="E84" s="8">
         <v>2</v>
       </c>
-      <c r="E84" s="1">
+      <c r="F84" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>199</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D85" s="8">
         <v>28</v>
       </c>
-      <c r="D85" s="8">
+      <c r="E85" s="8">
         <v>3</v>
       </c>
-      <c r="E85" s="1">
+      <c r="F85" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>200</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D86" s="8">
         <v>29</v>
       </c>
-      <c r="D86" s="8">
+      <c r="E86" s="8">
         <v>1</v>
       </c>
-      <c r="E86" s="1">
+      <c r="F86" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>200</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D87" s="8">
         <v>29</v>
       </c>
-      <c r="D87" s="8">
+      <c r="E87" s="8">
         <v>2</v>
       </c>
-      <c r="E87" s="1">
+      <c r="F87" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>200</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D88" s="8">
         <v>29</v>
       </c>
-      <c r="D88" s="8">
+      <c r="E88" s="8">
         <v>3</v>
       </c>
-      <c r="E88" s="1">
+      <c r="F88" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>201</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D89" s="8">
         <v>30</v>
       </c>
-      <c r="D89" s="8">
+      <c r="E89" s="8">
         <v>1</v>
       </c>
-      <c r="E89" s="1">
+      <c r="F89" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>201</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D90" s="8">
         <v>30</v>
       </c>
-      <c r="D90" s="8">
+      <c r="E90" s="8">
         <v>2</v>
       </c>
-      <c r="E90" s="1">
+      <c r="F90" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>201</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C91" s="8">
+      <c r="C91" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D91" s="8">
         <v>30</v>
       </c>
-      <c r="D91" s="8">
+      <c r="E91" s="8">
         <v>3</v>
       </c>
-      <c r="E91" s="1">
+      <c r="F91" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>202</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D92" s="8">
         <v>31</v>
       </c>
-      <c r="D92" s="8">
+      <c r="E92" s="8">
         <v>1</v>
       </c>
-      <c r="E92" s="1">
+      <c r="F92" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>202</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D93" s="8">
         <v>31</v>
       </c>
-      <c r="D93" s="8">
+      <c r="E93" s="8">
         <v>2</v>
       </c>
-      <c r="E93" s="1">
+      <c r="F93" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>202</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C94" s="8">
+      <c r="C94" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D94" s="8">
         <v>31</v>
       </c>
-      <c r="D94" s="8">
+      <c r="E94" s="8">
         <v>3</v>
       </c>
-      <c r="E94" s="1">
+      <c r="F94" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>203</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C95" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D95" s="8">
         <v>32</v>
       </c>
-      <c r="D95" s="8">
+      <c r="E95" s="8">
         <v>1</v>
       </c>
-      <c r="E95" s="1">
+      <c r="F95" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>203</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C96" s="8">
+      <c r="C96" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D96" s="8">
         <v>32</v>
       </c>
-      <c r="D96" s="8">
+      <c r="E96" s="8">
         <v>2</v>
       </c>
-      <c r="E96" s="1">
+      <c r="F96" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>203</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C97" s="8">
+      <c r="C97" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D97" s="8">
         <v>32</v>
       </c>
-      <c r="D97" s="8">
+      <c r="E97" s="8">
         <v>3</v>
       </c>
-      <c r="E97" s="1">
+      <c r="F97" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>204</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C98" s="8">
+      <c r="C98" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D98" s="8">
         <v>33</v>
       </c>
-      <c r="D98" s="8">
+      <c r="E98" s="8">
         <v>1</v>
       </c>
-      <c r="E98" s="1">
+      <c r="F98" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>204</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C99" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D99" s="8">
         <v>33</v>
       </c>
-      <c r="D99" s="8">
+      <c r="E99" s="8">
         <v>2</v>
       </c>
-      <c r="E99" s="1">
+      <c r="F99" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>204</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C100" s="8">
+      <c r="C100" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D100" s="8">
         <v>33</v>
       </c>
-      <c r="D100" s="8">
+      <c r="E100" s="8">
         <v>3</v>
       </c>
-      <c r="E100" s="1">
+      <c r="F100" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
         <v>205</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C101" s="8">
+      <c r="C101" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D101" s="8">
         <v>34</v>
       </c>
-      <c r="D101" s="8">
+      <c r="E101" s="8">
         <v>1</v>
       </c>
-      <c r="E101" s="1">
+      <c r="F101" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>205</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C102" s="8">
+      <c r="C102" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D102" s="8">
         <v>34</v>
       </c>
-      <c r="D102" s="8">
+      <c r="E102" s="8">
         <v>2</v>
       </c>
-      <c r="E102" s="1">
+      <c r="F102" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>205</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C103" s="8">
+      <c r="C103" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D103" s="8">
         <v>34</v>
       </c>
-      <c r="D103" s="8">
+      <c r="E103" s="8">
         <v>3</v>
       </c>
-      <c r="E103" s="1">
+      <c r="F103" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>206</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C104" s="8">
+      <c r="C104" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D104" s="8">
         <v>35</v>
       </c>
-      <c r="D104" s="8">
+      <c r="E104" s="8">
         <v>1</v>
       </c>
-      <c r="E104" s="1">
+      <c r="F104" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>206</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C105" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D105" s="8">
         <v>35</v>
       </c>
-      <c r="D105" s="8">
+      <c r="E105" s="8">
         <v>2</v>
       </c>
-      <c r="E105" s="1">
+      <c r="F105" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
         <v>206</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C106" s="8">
+      <c r="C106" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D106" s="8">
         <v>35</v>
       </c>
-      <c r="D106" s="8">
+      <c r="E106" s="8">
         <v>3</v>
       </c>
-      <c r="E106" s="1">
+      <c r="F106" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>207</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C107" s="8">
+      <c r="C107" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D107" s="8">
         <v>36</v>
       </c>
-      <c r="D107" s="8">
+      <c r="E107" s="8">
         <v>1</v>
       </c>
-      <c r="E107" s="1">
+      <c r="F107" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>207</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C108" s="8">
+      <c r="C108" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D108" s="8">
         <v>36</v>
       </c>
-      <c r="D108" s="8">
+      <c r="E108" s="8">
         <v>2</v>
       </c>
-      <c r="E108" s="1">
+      <c r="F108" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
         <v>207</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C109" s="8">
+      <c r="C109" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D109" s="8">
         <v>36</v>
       </c>
-      <c r="D109" s="8">
+      <c r="E109" s="8">
         <v>3</v>
       </c>
-      <c r="E109" s="1">
+      <c r="F109" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C110" s="8">
+      <c r="C110" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D110" s="8">
         <v>37</v>
       </c>
-      <c r="D110" s="8">
+      <c r="E110" s="8">
         <v>1</v>
       </c>
-      <c r="E110" s="1">
+      <c r="F110" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C111" s="8">
+      <c r="C111" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D111" s="8">
         <v>37</v>
       </c>
-      <c r="D111" s="8">
+      <c r="E111" s="8">
         <v>2</v>
       </c>
-      <c r="E111" s="1">
+      <c r="F111" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C112" s="8">
+      <c r="C112" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D112" s="8">
         <v>37</v>
       </c>
-      <c r="D112" s="8">
+      <c r="E112" s="8">
         <v>3</v>
       </c>
-      <c r="E112" s="1">
+      <c r="F112" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>209</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C113" s="8">
+      <c r="C113" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D113" s="8">
         <v>38</v>
       </c>
-      <c r="D113" s="8">
+      <c r="E113" s="8">
         <v>1</v>
       </c>
-      <c r="E113" s="1">
+      <c r="F113" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>209</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C114" s="8">
+      <c r="C114" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D114" s="8">
         <v>38</v>
       </c>
-      <c r="D114" s="8">
+      <c r="E114" s="8">
         <v>2</v>
       </c>
-      <c r="E114" s="1">
+      <c r="F114" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>209</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C115" s="8">
+      <c r="C115" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D115" s="8">
         <v>38</v>
       </c>
-      <c r="D115" s="8">
+      <c r="E115" s="8">
         <v>3</v>
       </c>
-      <c r="E115" s="1">
+      <c r="F115" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>210</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C116" s="8">
+      <c r="C116" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D116" s="8">
         <v>39</v>
       </c>
-      <c r="D116" s="8">
+      <c r="E116" s="8">
         <v>1</v>
       </c>
-      <c r="E116" s="1">
+      <c r="F116" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
         <v>210</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C117" s="8">
+      <c r="C117" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D117" s="8">
         <v>39</v>
       </c>
-      <c r="D117" s="8">
+      <c r="E117" s="8">
         <v>2</v>
       </c>
-      <c r="E117" s="1">
+      <c r="F117" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
         <v>210</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C118" s="8">
+      <c r="C118" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D118" s="8">
         <v>39</v>
       </c>
-      <c r="D118" s="8">
+      <c r="E118" s="8">
         <v>3</v>
       </c>
-      <c r="E118" s="1">
+      <c r="F118" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
         <v>211</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C119" s="8">
+      <c r="C119" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D119" s="8">
         <v>40</v>
       </c>
-      <c r="D119" s="8">
+      <c r="E119" s="8">
         <v>1</v>
       </c>
-      <c r="E119" s="1">
+      <c r="F119" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>211</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C120" s="8">
+      <c r="C120" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D120" s="8">
         <v>40</v>
       </c>
-      <c r="D120" s="8">
+      <c r="E120" s="8">
         <v>2</v>
       </c>
-      <c r="E120" s="1">
+      <c r="F120" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
         <v>211</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C121" s="8">
+      <c r="C121" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D121" s="8">
         <v>40</v>
       </c>
-      <c r="D121" s="8">
+      <c r="E121" s="8">
         <v>3</v>
       </c>
-      <c r="E121" s="1">
+      <c r="F121" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
         <v>212</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C122" s="8">
+      <c r="C122" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D122" s="8">
         <v>41</v>
       </c>
-      <c r="D122" s="8">
+      <c r="E122" s="8">
         <v>1</v>
       </c>
-      <c r="E122" s="1">
+      <c r="F122" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
         <v>212</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C123" s="8">
+      <c r="C123" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D123" s="8">
         <v>41</v>
       </c>
-      <c r="D123" s="8">
+      <c r="E123" s="8">
         <v>2</v>
       </c>
-      <c r="E123" s="1">
+      <c r="F123" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>212</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C124" s="8">
+      <c r="C124" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D124" s="8">
         <v>41</v>
       </c>
-      <c r="D124" s="8">
+      <c r="E124" s="8">
         <v>3</v>
       </c>
-      <c r="E124" s="1">
+      <c r="F124" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>213</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C125" s="8">
+      <c r="C125" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D125" s="8">
         <v>42</v>
       </c>
-      <c r="D125" s="8">
+      <c r="E125" s="8">
         <v>1</v>
       </c>
-      <c r="E125" s="1">
+      <c r="F125" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>213</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C126" s="8">
+      <c r="C126" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D126" s="8">
         <v>42</v>
       </c>
-      <c r="D126" s="8">
+      <c r="E126" s="8">
         <v>2</v>
       </c>
-      <c r="E126" s="1">
+      <c r="F126" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
         <v>213</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C127" s="8">
+      <c r="C127" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D127" s="8">
         <v>42</v>
       </c>
-      <c r="D127" s="8">
+      <c r="E127" s="8">
         <v>3</v>
       </c>
-      <c r="E127" s="1">
+      <c r="F127" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>214</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C128" s="8">
+      <c r="C128" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D128" s="8">
         <v>43</v>
       </c>
-      <c r="D128" s="8">
+      <c r="E128" s="8">
         <v>1</v>
       </c>
-      <c r="E128" s="1">
+      <c r="F128" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>214</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C129" s="8">
+      <c r="C129" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D129" s="8">
         <v>43</v>
       </c>
-      <c r="D129" s="8">
+      <c r="E129" s="8">
         <v>2</v>
       </c>
-      <c r="E129" s="1">
+      <c r="F129" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>214</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C130" s="8">
+      <c r="C130" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D130" s="8">
         <v>43</v>
       </c>
-      <c r="D130" s="8">
+      <c r="E130" s="8">
         <v>3</v>
       </c>
-      <c r="E130" s="1">
+      <c r="F130" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>215</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C131" s="8">
+      <c r="C131" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D131" s="8">
         <v>44</v>
       </c>
-      <c r="D131" s="8">
+      <c r="E131" s="8">
         <v>1</v>
       </c>
-      <c r="E131" s="1">
+      <c r="F131" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>215</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C132" s="8">
+      <c r="C132" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D132" s="8">
         <v>44</v>
       </c>
-      <c r="D132" s="8">
+      <c r="E132" s="8">
         <v>2</v>
       </c>
-      <c r="E132" s="1">
+      <c r="F132" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>215</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C133" s="8">
+      <c r="C133" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D133" s="8">
         <v>44</v>
       </c>
-      <c r="D133" s="8">
+      <c r="E133" s="8">
         <v>3</v>
       </c>
-      <c r="E133" s="1">
+      <c r="F133" s="1">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E133" xr:uid="{F6E4C5B3-0A03-AB44-BED1-5363B225AF35}"/>
+  <autoFilter ref="A1:F133" xr:uid="{F6E4C5B3-0A03-AB44-BED1-5363B225AF35}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
